--- a/Reports/Excel-report.xlsx
+++ b/Reports/Excel-report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="225">
   <si>
     <t xml:space="preserve">Test ID </t>
   </si>
@@ -6243,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="66"/>
